--- a/Excel/镇魂街/soloBoss.单人BOSS.xlsx
+++ b/Excel/镇魂街/soloBoss.单人BOSS.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="BOSS类型" sheetId="26" r:id="rId2"/>
     <sheet name="BOSS等级" sheetId="27" r:id="rId3"/>
-    <sheet name="solo_monster_pos" sheetId="29" r:id="rId4"/>
-    <sheet name="solo_boss_attr" sheetId="32" r:id="rId5"/>
-    <sheet name="solo_boss_category" sheetId="30" r:id="rId6"/>
-    <sheet name="solo_boss_constant" sheetId="31" r:id="rId7"/>
+    <sheet name="solo_boss_attr" sheetId="32" r:id="rId4"/>
+    <sheet name="solo_boss_category" sheetId="30" r:id="rId5"/>
+    <sheet name="solo_boss_constant" sheetId="31" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
   <si>
     <t>sheet名</t>
   </si>
@@ -124,9 +123,6 @@
     <t>LastId</t>
   </si>
   <si>
-    <t>MonsterGroup</t>
-  </si>
-  <si>
     <t>SceneName</t>
   </si>
   <si>
@@ -145,9 +141,6 @@
     <t>上一关id</t>
   </si>
   <si>
-    <t>关卡怪物组id</t>
-  </si>
-  <si>
     <t>场景名字</t>
   </si>
   <si>
@@ -172,14 +165,6 @@
   </si>
   <si>
     <t>难度4</t>
-  </si>
-  <si>
-    <t>drop_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6#7</t>
@@ -289,40 +274,8 @@
     <t>Map_luoshajiedao_1-1</t>
   </si>
   <si>
-    <t>LevelId</t>
-  </si>
-  <si>
-    <t>WaveId</t>
-  </si>
-  <si>
-    <t>MonsterIds</t>
-  </si>
-  <si>
-    <t>int:a&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物ID集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0#1#2#3#0</t>
   </si>
   <si>
     <t>Desc</t>
@@ -575,17 +528,6 @@
     <t>攻击+1000,防御-1000</t>
   </si>
   <si>
-    <t>solo_monster_pos</t>
-  </si>
-  <si>
-    <t>solo_monster_pos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>solo_monster_pos.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>solo_boss_attr.txt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -599,14 +541,6 @@
   </si>
   <si>
     <t>solo_boss_constant.txt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -630,10 +564,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>solo_monster_pos.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>solo_boss_attr.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -643,6 +573,98 @@
   </si>
   <si>
     <t>solo_boss_constant.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:a&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[1].jlr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[1].shl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].jlr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].shl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3].jlr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3].shl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&gt;|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&gt;|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[1].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[1].守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[2].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[2].守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[3].寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[3].守护灵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1150,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,17 +1217,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="b">
@@ -1215,14 +1237,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1233,17 +1255,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1253,14 +1275,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1269,19 +1291,19 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1289,16 +1311,16 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1307,19 +1329,19 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="b">
@@ -1327,16 +1349,16 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1345,19 +1367,19 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="b">
@@ -1365,16 +1387,16 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1382,44 +1404,6 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1494,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1508,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1522,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1547,15 +1531,14 @@
     <col min="5" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="30.125" customWidth="1"/>
-    <col min="14" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="37.125" customWidth="1"/>
+    <col min="9" max="16" width="16.125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="30.125" customWidth="1"/>
+    <col min="19" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1569,125 +1552,170 @@
         <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="S2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1501001</v>
       </c>
@@ -1695,7 +1723,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>1047</v>
@@ -1714,20 +1742,35 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1501002</v>
       </c>
@@ -1735,7 +1778,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>1047</v>
@@ -1755,19 +1798,34 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2">
         <v>1501001</v>
       </c>
-      <c r="L5" s="2">
+      <c r="R5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="2">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1501003</v>
       </c>
@@ -1775,7 +1833,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>1047</v>
@@ -1795,19 +1853,34 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2">
         <v>1501002</v>
       </c>
-      <c r="L6" s="2">
+      <c r="R6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1502001</v>
       </c>
@@ -1815,7 +1888,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>1047</v>
@@ -1835,19 +1908,34 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1502002</v>
       </c>
@@ -1855,7 +1943,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>1047</v>
@@ -1875,19 +1963,34 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2">
         <v>1502001</v>
       </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1502003</v>
       </c>
@@ -1895,7 +1998,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>1047</v>
@@ -1915,19 +2018,34 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1502002</v>
       </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1502004</v>
       </c>
@@ -1935,7 +2053,7 @@
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>1047</v>
@@ -1955,19 +2073,34 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2">
         <v>1502003</v>
       </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1503001</v>
       </c>
@@ -1975,7 +2108,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2">
         <v>1047</v>
@@ -1995,19 +2128,34 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1503002</v>
       </c>
@@ -2015,7 +2163,7 @@
         <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2">
         <v>1047</v>
@@ -2035,15 +2183,30 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2">
         <v>1503001</v>
       </c>
-      <c r="L12" s="2">
-        <v>2</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="R12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2055,196 +2218,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1501001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1501002</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1501003</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1502001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1502002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1502003</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1502004</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1503001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1503002</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2266,39 +2239,39 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -2306,19 +2279,19 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2326,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2">
         <v>101</v>
@@ -2346,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2">
         <v>101</v>
@@ -2366,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
@@ -2387,12 +2360,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2407,33 +2380,33 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,16 +2414,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2458,10 +2431,10 @@
         <v>101001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2475,10 +2448,10 @@
         <v>101002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2492,10 +2465,10 @@
         <v>101003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2509,10 +2482,10 @@
         <v>102001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -2526,10 +2499,10 @@
         <v>102002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -2543,10 +2516,10 @@
         <v>103001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -2560,10 +2533,10 @@
         <v>103002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -2577,10 +2550,10 @@
         <v>103003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -2594,10 +2567,10 @@
         <v>103004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2611,10 +2584,10 @@
         <v>103005</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -2626,10 +2599,11 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2650,33 +2624,33 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -2684,16 +2658,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2704,7 +2678,7 @@
         <v>1604002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>

--- a/Excel/镇魂街/soloBoss.单人BOSS.xlsx
+++ b/Excel/镇魂街/soloBoss.单人BOSS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
   <si>
     <t>sheet名</t>
   </si>
@@ -92,21 +92,12 @@
     <t>特定开启天</t>
   </si>
   <si>
-    <t>小乌堆</t>
-  </si>
-  <si>
     <t>draw_gy_1102001</t>
   </si>
   <si>
-    <t>大鸡居</t>
-  </si>
-  <si>
     <t>draw_xc_1102002</t>
   </si>
   <si>
-    <t>发福蝶</t>
-  </si>
-  <si>
     <t>draw_dw_1102003</t>
   </si>
   <si>
@@ -165,62 +156,6 @@
   </si>
   <si>
     <t>难度4</t>
-  </si>
-  <si>
-    <t>6#7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2#4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#6#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1#3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5#7</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
@@ -665,6 +600,173 @@
   </si>
   <si>
     <t>怪物[3].守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>月娘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星君</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日神</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度5</t>
+  </si>
+  <si>
+    <t>DropShow[4][1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示奖励ID4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropShow[4][2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示奖励类型4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#4#7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#5#7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#6#7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属解封石3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>个人B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS1-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS1-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS1-3</t>
+  </si>
+  <si>
+    <t>个人BOSS1-4</t>
+  </si>
+  <si>
+    <t>个人BOSS1-5</t>
+  </si>
+  <si>
+    <t>个人BOSS2-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS2-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS2-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS2-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS3-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS3-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS3-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS3-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS3-5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1217,17 +1319,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="b">
@@ -1237,14 +1339,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1255,17 +1357,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1275,14 +1377,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1293,17 +1395,17 @@
     </row>
     <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1313,14 +1415,14 @@
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1331,17 +1433,17 @@
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="b">
@@ -1351,14 +1453,14 @@
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1369,17 +1471,17 @@
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="b">
@@ -1389,14 +1491,14 @@
     </row>
     <row r="11" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1416,7 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1427,7 +1531,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1471,42 +1575,42 @@
       <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>103</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1517,697 +1621,1171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="16" width="16.125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="30.125" customWidth="1"/>
-    <col min="19" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="37.125" customWidth="1"/>
+    <col min="9" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="30.125" customWidth="1"/>
+    <col min="21" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R2" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
         <v>136</v>
       </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1501001</v>
+        <v>1401001</v>
       </c>
       <c r="B4" s="2">
         <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1401001</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F4" s="2">
         <v>14</v>
       </c>
-      <c r="G4" s="2">
-        <v>1602001</v>
+      <c r="G4" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H4" s="2">
         <v>16</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="I4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>18</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>19</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="T4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1501002</v>
+        <v>1401002</v>
       </c>
       <c r="B5" s="2">
         <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1401001</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
-        <v>1602001</v>
+      <c r="G5" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H5" s="2">
         <v>16</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="I5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="2">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
         <v>18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>19</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>20</v>
       </c>
-      <c r="Q5" s="2">
-        <v>1501001</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S5" s="2">
+        <v>1401001</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1501003</v>
+        <v>1401003</v>
       </c>
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1401001</v>
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F6" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="2">
-        <v>1602001</v>
+      <c r="G6" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H6" s="2">
         <v>16</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
-        <v>1</v>
+      <c r="I6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="2">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="L6" s="2">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
         <v>18</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>19</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>3</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>20</v>
       </c>
-      <c r="Q6" s="2">
-        <v>1501002</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S6" s="2">
+        <v>1401002</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1502001</v>
+        <v>1401004</v>
       </c>
       <c r="B7" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1401001</v>
+      <c r="D7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F7" s="2">
         <v>14</v>
       </c>
-      <c r="G7" s="2">
-        <v>1602001</v>
+      <c r="G7" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>1</v>
+      <c r="I7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="L7" s="2">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
         <v>18</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>19</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>20</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S7" s="2">
+        <v>1401003</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1502002</v>
+        <v>1401005</v>
       </c>
       <c r="B8" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1401001</v>
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F8" s="2">
         <v>14</v>
       </c>
-      <c r="G8" s="2">
-        <v>1602001</v>
+      <c r="G8" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H8" s="2">
         <v>16</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>1</v>
+      <c r="I8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="2">
+        <v>16</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="L8" s="2">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
         <v>18</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>19</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>3</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>20</v>
       </c>
-      <c r="Q8" s="2">
-        <v>1502001</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1401004</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>1502003</v>
+        <v>1402001</v>
       </c>
       <c r="B9" s="2">
         <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1401001</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="2">
         <v>14</v>
       </c>
-      <c r="G9" s="2">
-        <v>1602001</v>
+      <c r="G9" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H9" s="2">
         <v>16</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="2">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
         <v>18</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>19</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>20</v>
       </c>
-      <c r="Q9" s="2">
-        <v>1502002</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>1502004</v>
+        <v>1402002</v>
       </c>
       <c r="B10" s="2">
         <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1401001</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F10" s="2">
         <v>14</v>
       </c>
-      <c r="G10" s="2">
-        <v>1602001</v>
+      <c r="G10" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H10" s="2">
         <v>16</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="I10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="2">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
         <v>18</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>19</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>20</v>
       </c>
-      <c r="Q10" s="2">
-        <v>1502003</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1402001</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1503001</v>
+        <v>1402003</v>
       </c>
       <c r="B11" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1401001</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="2">
-        <v>1602001</v>
+      <c r="G11" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="H11" s="2">
         <v>16</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>1</v>
+      <c r="I11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="L11" s="2">
+        <v>16</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
         <v>18</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>19</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>20</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1402002</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1503002</v>
+        <v>1402004</v>
       </c>
       <c r="B12" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1047</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1401001</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="F12" s="2">
         <v>14</v>
       </c>
-      <c r="G12" s="2">
-        <v>1602001</v>
+      <c r="G12" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="H12" s="2">
         <v>16</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>1</v>
+      <c r="I12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="L12" s="2">
+        <v>16</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
         <v>18</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>19</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>20</v>
       </c>
-      <c r="Q12" s="2">
-        <v>1503001</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S12" s="2">
-        <v>1</v>
+        <v>1402003</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1402005</v>
+      </c>
+      <c r="B13" s="2">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="2">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="2">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>20</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1402004</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1403001</v>
+      </c>
+      <c r="B14" s="2">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="2">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1403002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="2">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="2">
+        <v>16</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1403001</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1403003</v>
+      </c>
+      <c r="B16" s="2">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="2">
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="2">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="2">
+        <v>16</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>18</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1403002</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1403004</v>
+      </c>
+      <c r="B17" s="2">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="2">
+        <v>16</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>18</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2">
+        <v>20</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1403003</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1403005</v>
+      </c>
+      <c r="B18" s="2">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="2">
+        <v>16</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>18</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2">
+        <v>20</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1403004</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2239,59 +2817,59 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2299,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2">
         <v>101</v>
@@ -2319,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2">
         <v>101</v>
@@ -2339,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
@@ -2380,33 +2958,33 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2414,16 +2992,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2431,10 +3009,10 @@
         <v>101001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2448,10 +3026,10 @@
         <v>101002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2465,10 +3043,10 @@
         <v>101003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -2482,10 +3060,10 @@
         <v>102001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -2499,10 +3077,10 @@
         <v>102002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -2516,10 +3094,10 @@
         <v>103001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -2533,10 +3111,10 @@
         <v>103002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -2550,10 +3128,10 @@
         <v>103003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -2567,10 +3145,10 @@
         <v>103004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -2584,10 +3162,10 @@
         <v>103005</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -2624,33 +3202,33 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -2658,16 +3236,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -2678,7 +3256,7 @@
         <v>1604002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>

--- a/Excel/镇魂街/soloBoss.单人BOSS.xlsx
+++ b/Excel/镇魂街/soloBoss.单人BOSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="201">
   <si>
     <t>sheet名</t>
   </si>
@@ -76,72 +76,65 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>唯一键</t>
+  </si>
+  <si>
+    <t>boss名字</t>
+  </si>
+  <si>
+    <t>boss原画</t>
+  </si>
+  <si>
+    <t>特定开启天</t>
+  </si>
+  <si>
+    <t>draw_gy_1102001</t>
+  </si>
+  <si>
+    <t>draw_xc_1102002</t>
+  </si>
+  <si>
+    <t>draw_dw_1102003</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem</t>
+  </si>
+  <si>
+    <t>LastId</t>
+  </si>
+  <si>
+    <t>SceneName</t>
+  </si>
+  <si>
+    <t>MapPosId</t>
+  </si>
+  <si>
+    <t>属于哪个Bossid</t>
+  </si>
+  <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>奖励数据 掉落id#掉落id</t>
+  </si>
+  <si>
+    <t>上一关id</t>
+  </si>
+  <si>
+    <t>场景名字</t>
+  </si>
+  <si>
+    <t>地图坐标ID</t>
+  </si>
+  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>唯一键</t>
-  </si>
-  <si>
-    <t>boss名字</t>
-  </si>
-  <si>
-    <t>boss原画</t>
-  </si>
-  <si>
-    <t>特定开启天</t>
-  </si>
-  <si>
-    <t>draw_gy_1102001</t>
-  </si>
-  <si>
-    <t>draw_xc_1102002</t>
-  </si>
-  <si>
-    <t>draw_dw_1102003</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossId</t>
-  </si>
-  <si>
-    <t>DropItem</t>
-  </si>
-  <si>
-    <t>LastId</t>
-  </si>
-  <si>
-    <t>SceneName</t>
-  </si>
-  <si>
-    <t>MapPosId</t>
-  </si>
-  <si>
-    <t>属于哪个Bossid</t>
-  </si>
-  <si>
-    <t>关卡名称</t>
-  </si>
-  <si>
-    <t>奖励数据 掉落id#掉落id</t>
-  </si>
-  <si>
-    <t>上一关id</t>
-  </si>
-  <si>
-    <t>场景名字</t>
-  </si>
-  <si>
-    <t>地图坐标ID</t>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,10 +200,6 @@
   </si>
   <si>
     <t>Map_luoshajiedao_1-1</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
@@ -295,9 +284,6 @@
   </si>
   <si>
     <t>人武灵</t>
-  </si>
-  <si>
-    <t>SoloTicketId</t>
   </si>
   <si>
     <t>SoloFlushTime</t>
@@ -400,10 +386,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>solo_level.txt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -495,10 +477,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>solo_level.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>solo_boss_attr.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -547,30 +525,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters[1].jlr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[1].shl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[2].jlr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[2].shl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[3].jlr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters[3].shl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&gt;|0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -583,23 +537,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物[1].守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物[2].寄灵人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物[2].守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物[3].寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物[3].守护灵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -767,6 +709,113 @@
   </si>
   <si>
     <t>个人BOSS3-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSSId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vs</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo_level.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol,Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人boss挑战券</t>
+  </si>
+  <si>
+    <t>单人BOSS挑战券数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1326,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1319,17 +1368,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="b">
@@ -1339,14 +1388,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1357,17 +1406,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="b">
@@ -1377,14 +1426,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1395,17 +1444,17 @@
     </row>
     <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="b">
@@ -1415,14 +1464,14 @@
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1433,17 +1482,17 @@
     </row>
     <row r="8" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="b">
@@ -1453,14 +1502,14 @@
     </row>
     <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1471,17 +1520,17 @@
     </row>
     <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="b">
@@ -1491,14 +1540,14 @@
     </row>
     <row r="11" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1516,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1524,93 +1573,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>101</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1402</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1403</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1403</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1621,1170 +1688,1117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="30.125" customWidth="1"/>
-    <col min="21" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="37.125" customWidth="1"/>
+    <col min="3" max="4" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="11" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="30.125" customWidth="1"/>
+    <col min="20" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>131</v>
       </c>
       <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
         <v>132</v>
       </c>
-      <c r="H2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" t="s">
-        <v>145</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1401001</v>
       </c>
       <c r="B4" s="2">
-        <v>101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="2">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="2">
-        <v>16</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J4" s="2">
         <v>16</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>18</v>
-      </c>
+      <c r="K4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="2">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>19</v>
       </c>
       <c r="Q4" s="2">
         <v>3</v>
       </c>
-      <c r="R4" s="2">
-        <v>20</v>
-      </c>
-      <c r="S4">
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1401002</v>
       </c>
       <c r="B5" s="2">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="2">
-        <v>16</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J5" s="2">
         <v>16</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>18</v>
-      </c>
+      <c r="K5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="2">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>2</v>
-      </c>
-      <c r="P5" s="2">
-        <v>19</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
       </c>
       <c r="R5" s="2">
-        <v>20</v>
-      </c>
-      <c r="S5" s="2">
         <v>1401001</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="S5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1401003</v>
       </c>
       <c r="B6" s="2">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="2">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="2">
-        <v>16</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J6" s="2">
         <v>16</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L6" s="2">
         <v>16</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
+      <c r="M6" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="N6" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>19</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
       <c r="R6" s="2">
-        <v>20</v>
-      </c>
-      <c r="S6" s="2">
         <v>1401002</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="S6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1401004</v>
       </c>
       <c r="B7" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="2">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" s="2">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="L7" s="2">
         <v>16</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
+      <c r="M7" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="N7" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>19</v>
       </c>
       <c r="Q7" s="2">
         <v>3</v>
       </c>
       <c r="R7" s="2">
-        <v>20</v>
-      </c>
-      <c r="S7" s="2">
         <v>1401003</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1401005</v>
       </c>
       <c r="B8" s="2">
-        <v>101</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="2">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2">
         <v>16</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L8" s="2">
         <v>16</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
+      <c r="M8" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="N8" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>19</v>
       </c>
       <c r="Q8" s="2">
         <v>3</v>
       </c>
       <c r="R8" s="2">
-        <v>20</v>
-      </c>
-      <c r="S8" s="2">
         <v>1401004</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="S8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1402001</v>
       </c>
       <c r="B9" s="2">
-        <v>102</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="2">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="2">
-        <v>16</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J9" s="2">
         <v>16</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>18</v>
-      </c>
+      <c r="K9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="2">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>19</v>
       </c>
       <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="R9" s="2">
-        <v>20</v>
-      </c>
-      <c r="S9">
+      <c r="R9">
         <v>0</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1402002</v>
       </c>
       <c r="B10" s="2">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="2">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="2">
-        <v>16</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J10" s="2">
         <v>16</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>18</v>
-      </c>
+      <c r="K10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="2">
+        <v>16</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
         <v>2</v>
-      </c>
-      <c r="P10" s="2">
-        <v>19</v>
       </c>
       <c r="Q10" s="2">
         <v>3</v>
       </c>
       <c r="R10" s="2">
-        <v>20</v>
-      </c>
-      <c r="S10" s="2">
         <v>1402001</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="S10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1402003</v>
       </c>
       <c r="B11" s="2">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="2">
-        <v>16</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J11" s="2">
         <v>16</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L11" s="2">
         <v>16</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
+      <c r="M11" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="N11" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
         <v>2</v>
-      </c>
-      <c r="P11" s="2">
-        <v>19</v>
       </c>
       <c r="Q11" s="2">
         <v>3</v>
       </c>
       <c r="R11" s="2">
-        <v>20</v>
-      </c>
-      <c r="S11" s="2">
         <v>1402002</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="S11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1402004</v>
       </c>
       <c r="B12" s="2">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="2">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="2">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="2">
-        <v>16</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="2">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="L12" s="2">
         <v>16</v>
       </c>
-      <c r="M12" s="2">
-        <v>1</v>
+      <c r="M12" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="N12" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
         <v>2</v>
-      </c>
-      <c r="P12" s="2">
-        <v>19</v>
       </c>
       <c r="Q12" s="2">
         <v>3</v>
       </c>
       <c r="R12" s="2">
-        <v>20</v>
-      </c>
-      <c r="S12" s="2">
         <v>1402003</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="2">
+      <c r="S12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1402005</v>
       </c>
       <c r="B13" s="2">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="2">
+        <v>1402</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="2">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="2">
-        <v>16</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J13" s="2">
         <v>16</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L13" s="2">
         <v>16</v>
       </c>
-      <c r="M13" s="2">
-        <v>1</v>
+      <c r="M13" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="N13" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
         <v>2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>19</v>
       </c>
       <c r="Q13" s="2">
         <v>3</v>
       </c>
       <c r="R13" s="2">
-        <v>20</v>
-      </c>
-      <c r="S13" s="2">
         <v>1402004</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="S13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1403001</v>
       </c>
       <c r="B14" s="2">
-        <v>103</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="2">
+        <v>1403</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="2">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="2">
-        <v>16</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J14" s="2">
         <v>16</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>18</v>
-      </c>
+      <c r="K14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="2">
+        <v>16</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
         <v>2</v>
-      </c>
-      <c r="P14" s="2">
-        <v>19</v>
       </c>
       <c r="Q14" s="2">
         <v>3</v>
       </c>
-      <c r="R14" s="2">
-        <v>20</v>
-      </c>
-      <c r="S14">
+      <c r="R14">
         <v>0</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="S14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1403002</v>
       </c>
       <c r="B15" s="2">
-        <v>103</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="2">
+        <v>1403</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="2">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="2">
-        <v>16</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J15" s="2">
         <v>16</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>18</v>
-      </c>
+      <c r="K15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="2">
+        <v>16</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
         <v>2</v>
-      </c>
-      <c r="P15" s="2">
-        <v>19</v>
       </c>
       <c r="Q15" s="2">
         <v>3</v>
       </c>
       <c r="R15" s="2">
-        <v>20</v>
-      </c>
-      <c r="S15" s="2">
         <v>1403001</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="2">
+      <c r="S15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1403003</v>
       </c>
       <c r="B16" s="2">
-        <v>103</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="2">
+        <v>1403</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="2">
         <v>14</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="2">
-        <v>16</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J16" s="2">
         <v>16</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="L16" s="2">
         <v>16</v>
       </c>
-      <c r="M16" s="2">
-        <v>1</v>
+      <c r="M16" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="N16" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
         <v>2</v>
-      </c>
-      <c r="P16" s="2">
-        <v>19</v>
       </c>
       <c r="Q16" s="2">
         <v>3</v>
       </c>
       <c r="R16" s="2">
-        <v>20</v>
-      </c>
-      <c r="S16" s="2">
         <v>1403002</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="S16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1403004</v>
       </c>
       <c r="B17" s="2">
-        <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="2">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="2">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="2">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="2">
-        <v>16</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="L17" s="2">
         <v>16</v>
       </c>
-      <c r="M17" s="2">
-        <v>1</v>
+      <c r="M17" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="N17" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
         <v>2</v>
-      </c>
-      <c r="P17" s="2">
-        <v>19</v>
       </c>
       <c r="Q17" s="2">
         <v>3</v>
       </c>
       <c r="R17" s="2">
-        <v>20</v>
-      </c>
-      <c r="S17" s="2">
         <v>1403003</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="S17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1403005</v>
       </c>
       <c r="B18" s="2">
-        <v>103</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="2">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" s="2">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="2">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="2">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J18" s="2">
-        <v>16</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" s="2">
-        <v>16</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
       <c r="N18" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
         <v>2</v>
-      </c>
-      <c r="P18" s="2">
-        <v>19</v>
       </c>
       <c r="Q18" s="2">
         <v>3</v>
       </c>
       <c r="R18" s="2">
-        <v>20</v>
-      </c>
-      <c r="S18" s="2">
         <v>1403004</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="S18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2800,7 +2814,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2817,59 +2831,59 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2877,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2">
         <v>101</v>
@@ -2897,7 +2911,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2">
         <v>101</v>
@@ -2917,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2">
         <v>101</v>
@@ -2958,50 +2972,50 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3009,10 +3023,10 @@
         <v>101001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -3026,10 +3040,10 @@
         <v>101002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3043,10 +3057,10 @@
         <v>101003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -3060,10 +3074,10 @@
         <v>102001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -3077,10 +3091,10 @@
         <v>102002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -3094,10 +3108,10 @@
         <v>103001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
@@ -3111,10 +3125,10 @@
         <v>103002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -3128,10 +3142,10 @@
         <v>103003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -3145,10 +3159,10 @@
         <v>103004</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -3162,10 +3176,10 @@
         <v>103005</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -3183,85 +3197,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="2" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1604002</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>2000</v>
       </c>
     </row>
